--- a/2006/murder-nonnegligent-manslaughter-2006.xlsx
+++ b/2006/murder-nonnegligent-manslaughter-2006.xlsx
@@ -4,7 +4,8 @@
   <workbookPr/>
   <sheets>
     <sheet sheetId="1" name="victims-by-age-gender-and-race" state="visible" r:id="rId3"/>
-    <sheet sheetId="2" name="offenders-by-age-gender-and-rac" state="visible" r:id="rId4"/>
+    <sheet sheetId="2" name="monthly-time-chart" state="visible" r:id="rId4"/>
+    <sheet sheetId="3" name="offenders-by-age-gender-and-rac" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -218,6 +219,48 @@
     <t>U</t>
   </si>
   <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>January</t>
+  </si>
+  <si>
+    <t>February</t>
+  </si>
+  <si>
+    <t>March</t>
+  </si>
+  <si>
+    <t>April</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>June</t>
+  </si>
+  <si>
+    <t>July</t>
+  </si>
+  <si>
+    <t>August</t>
+  </si>
+  <si>
+    <t>September</t>
+  </si>
+  <si>
+    <t>October</t>
+  </si>
+  <si>
+    <t>November</t>
+  </si>
+  <si>
+    <t>December</t>
+  </si>
+  <si>
+    <t>Number of Murders/Nonnegligent Manslaughters</t>
+  </si>
+  <si>
     <t>Age</t>
   </si>
   <si>
@@ -426,6 +469,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,###"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="10.0"/>
@@ -459,7 +505,7 @@
   <cellStyleXfs count="1">
     <xf fillId="0" numFmtId="0" borderId="0" fontId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf fillId="0" numFmtId="0" borderId="0" fontId="0"/>
     <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1">
       <alignment vertical="top" horizontal="center"/>
@@ -469,6 +515,12 @@
     </xf>
     <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1">
       <alignment/>
+    </xf>
+    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1">
+      <alignment/>
+    </xf>
+    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="164" borderId="1" applyFont="1" fontId="1" applyNumberFormat="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -484,6 +536,10 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
@@ -4993,31 +5049,141 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" customWidth="1" max="1" width="41.29"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c t="s" s="2" r="A1">
+        <v>68</v>
+      </c>
+      <c t="s" s="2" r="B1">
+        <v>69</v>
+      </c>
+      <c t="s" s="2" r="C1">
+        <v>70</v>
+      </c>
+      <c t="s" s="2" r="D1">
+        <v>71</v>
+      </c>
+      <c t="s" s="2" r="E1">
+        <v>72</v>
+      </c>
+      <c t="s" s="2" r="F1">
+        <v>73</v>
+      </c>
+      <c t="s" s="2" r="G1">
+        <v>74</v>
+      </c>
+      <c t="s" s="2" r="H1">
+        <v>75</v>
+      </c>
+      <c t="s" s="2" r="I1">
+        <v>76</v>
+      </c>
+      <c t="s" s="2" r="J1">
+        <v>77</v>
+      </c>
+      <c t="s" s="2" r="K1">
+        <v>78</v>
+      </c>
+      <c t="s" s="2" r="L1">
+        <v>79</v>
+      </c>
+      <c t="s" s="2" r="M1">
+        <v>80</v>
+      </c>
+      <c s="2" r="N1"/>
+      <c s="2" r="O1"/>
+      <c s="2" r="P1"/>
+      <c s="2" r="Q1"/>
+      <c s="2" r="R1"/>
+      <c s="2" r="S1"/>
+      <c s="2" r="T1"/>
+      <c s="2" r="U1"/>
+      <c s="2" r="V1"/>
+      <c s="2" r="W1"/>
+      <c s="2" r="X1"/>
+      <c s="2" r="Y1"/>
+      <c s="2" r="Z1"/>
+    </row>
+    <row r="2">
+      <c t="s" s="4" r="A2">
+        <v>81</v>
+      </c>
+      <c s="5" r="B2">
+        <v>30.0</v>
+      </c>
+      <c s="5" r="C2">
+        <v>22.0</v>
+      </c>
+      <c s="5" r="D2">
+        <v>31.0</v>
+      </c>
+      <c s="5" r="E2">
+        <v>33.0</v>
+      </c>
+      <c s="5" r="F2">
+        <v>27.0</v>
+      </c>
+      <c s="5" r="G2">
+        <v>35.0</v>
+      </c>
+      <c s="5" r="H2">
+        <v>28.0</v>
+      </c>
+      <c s="5" r="I2">
+        <v>33.0</v>
+      </c>
+      <c s="5" r="J2">
+        <v>27.0</v>
+      </c>
+      <c s="5" r="K2">
+        <v>30.0</v>
+      </c>
+      <c s="5" r="L2">
+        <v>30.0</v>
+      </c>
+      <c s="5" r="M2">
+        <v>36.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
       <c t="s" s="1" r="A1">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c t="s" s="2" r="B1">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c t="s" s="2" r="C1">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c t="s" s="2" r="D1">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c t="s" s="2" r="E1">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c t="s" s="2" r="F1">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c t="s" s="2" r="G1">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c t="s" s="2" r="H1">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c s="2" r="I1"/>
       <c s="2" r="J1"/>
@@ -5040,20 +5206,20 @@
     </row>
     <row r="2">
       <c t="s" s="1" r="A2">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c t="s" s="2" r="B2">
-        <v>77</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3">
       <c t="s" s="2" r="B3">
-        <v>78</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4">
       <c t="s" s="2" r="B4">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c s="3" r="G4">
         <v>1.0</v>
@@ -5064,10 +5230,10 @@
     </row>
     <row r="5">
       <c t="s" s="1" r="A5">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c t="s" s="2" r="B5">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c s="3" r="C5"/>
       <c s="3" r="D5">
@@ -5079,20 +5245,20 @@
     </row>
     <row r="6">
       <c t="s" s="2" r="B6">
-        <v>82</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7">
       <c t="s" s="2" r="B7">
-        <v>83</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8">
       <c t="s" s="1" r="A8">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c t="s" s="2" r="B8">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c s="3" r="C8">
         <v>14.0</v>
@@ -5107,7 +5273,7 @@
     </row>
     <row r="9">
       <c t="s" s="2" r="B9">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c s="3" r="C9">
         <v>3.0</v>
@@ -5119,15 +5285,15 @@
     </row>
     <row r="10">
       <c t="s" s="2" r="B10">
-        <v>87</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11">
       <c t="s" s="1" r="A11">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c t="s" s="2" r="B11">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c s="3" r="C11">
         <v>26.0</v>
@@ -5142,7 +5308,7 @@
     </row>
     <row r="12">
       <c t="s" s="2" r="B12">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c s="3" r="C12">
         <v>4.0</v>
@@ -5156,15 +5322,15 @@
     </row>
     <row r="13">
       <c t="s" s="2" r="B13">
-        <v>91</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14">
       <c t="s" s="1" r="A14">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c t="s" s="2" r="B14">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c s="3" r="C14">
         <v>13.0</v>
@@ -5181,7 +5347,7 @@
     </row>
     <row r="15">
       <c t="s" s="2" r="B15">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c s="3" r="C15">
         <v>5.0</v>
@@ -5195,15 +5361,15 @@
     </row>
     <row r="16">
       <c t="s" s="2" r="B16">
-        <v>95</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17">
       <c t="s" s="1" r="A17">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c t="s" s="2" r="B17">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c s="3" r="C17">
         <v>10.0</v>
@@ -5217,7 +5383,7 @@
     </row>
     <row r="18">
       <c t="s" s="2" r="B18">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c s="3" r="C18">
         <v>1.0</v>
@@ -5231,15 +5397,15 @@
     </row>
     <row r="19">
       <c t="s" s="2" r="B19">
-        <v>99</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20">
       <c t="s" s="1" r="A20">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c t="s" s="2" r="B20">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c s="3" r="C20">
         <v>13.0</v>
@@ -5253,7 +5419,7 @@
     </row>
     <row r="21">
       <c t="s" s="2" r="B21">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c s="3" r="C21">
         <v>1.0</v>
@@ -5267,15 +5433,15 @@
     </row>
     <row r="22">
       <c t="s" s="2" r="B22">
-        <v>103</v>
+        <v>117</v>
       </c>
     </row>
     <row r="23">
       <c t="s" s="1" r="A23">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c t="s" s="2" r="B23">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c s="3" r="C23">
         <v>12.0</v>
@@ -5289,7 +5455,7 @@
     </row>
     <row r="24">
       <c t="s" s="2" r="B24">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c s="3" r="C24"/>
       <c s="3" r="D24"/>
@@ -5297,15 +5463,15 @@
     </row>
     <row r="25">
       <c t="s" s="2" r="B25">
-        <v>107</v>
+        <v>121</v>
       </c>
     </row>
     <row r="26">
       <c t="s" s="1" r="A26">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c t="s" s="2" r="B26">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c s="3" r="C26">
         <v>9.0</v>
@@ -5319,7 +5485,7 @@
     </row>
     <row r="27">
       <c t="s" s="2" r="B27">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c s="3" r="C27">
         <v>3.0</v>
@@ -5333,7 +5499,7 @@
     </row>
     <row r="28">
       <c t="s" s="2" r="B28">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c s="3" r="G28">
         <v>1.0</v>
@@ -5344,10 +5510,10 @@
     </row>
     <row r="29">
       <c t="s" s="1" r="A29">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c t="s" s="2" r="B29">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c s="3" r="C29">
         <v>5.0</v>
@@ -5361,7 +5527,7 @@
     </row>
     <row r="30">
       <c t="s" s="2" r="B30">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c s="3" r="D30">
         <v>1.0</v>
@@ -5372,15 +5538,15 @@
     </row>
     <row r="31">
       <c t="s" s="2" r="B31">
-        <v>115</v>
+        <v>129</v>
       </c>
     </row>
     <row r="32">
       <c t="s" s="1" r="A32">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c t="s" s="2" r="B32">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c s="3" r="C32">
         <v>5.0</v>
@@ -5394,20 +5560,20 @@
     </row>
     <row r="33">
       <c t="s" s="2" r="B33">
-        <v>118</v>
+        <v>132</v>
       </c>
     </row>
     <row r="34">
       <c t="s" s="2" r="B34">
-        <v>119</v>
+        <v>133</v>
       </c>
     </row>
     <row r="35">
       <c t="s" s="1" r="A35">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c t="s" s="2" r="B35">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c s="3" r="C35"/>
       <c s="3" r="D35">
@@ -5419,7 +5585,7 @@
     </row>
     <row r="36">
       <c t="s" s="2" r="B36">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c s="3" r="C36"/>
       <c s="3" r="D36">
@@ -5431,15 +5597,15 @@
     </row>
     <row r="37">
       <c t="s" s="2" r="B37">
-        <v>123</v>
+        <v>137</v>
       </c>
     </row>
     <row r="38">
       <c t="s" s="1" r="A38">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c t="s" s="2" r="B38">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c s="3" r="C38">
         <v>3.0</v>
@@ -5453,22 +5619,22 @@
     </row>
     <row r="39">
       <c t="s" s="2" r="B39">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c s="3" r="C39"/>
       <c s="3" r="H39"/>
     </row>
     <row r="40">
       <c t="s" s="2" r="B40">
-        <v>127</v>
+        <v>141</v>
       </c>
     </row>
     <row r="41">
       <c t="s" s="1" r="A41">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c t="s" s="2" r="B41">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c s="3" r="C41">
         <v>2.0</v>
@@ -5485,14 +5651,14 @@
     </row>
     <row r="42">
       <c t="s" s="2" r="B42">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c s="3" r="C42"/>
       <c s="3" r="H42"/>
     </row>
     <row r="43">
       <c t="s" s="2" r="B43">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c s="3" r="G43">
         <v>36.0</v>
@@ -5503,10 +5669,10 @@
     </row>
     <row r="44">
       <c t="s" s="1" r="A44">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c t="s" s="2" r="B44">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c s="3" r="C44">
         <v>112.0</v>
@@ -5524,7 +5690,7 @@
     </row>
     <row r="45">
       <c t="s" s="2" r="B45">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c s="3" r="C45">
         <v>17.0</v>
@@ -5538,7 +5704,7 @@
     </row>
     <row r="46">
       <c t="s" s="2" r="B46">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c s="3" r="G46">
         <v>38.0</v>
